--- a/app/resources/AllCalendars.xlsx
+++ b/app/resources/AllCalendars.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="EsordientiCSI-7" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,14 @@
     <sheet name="PulciniFIGC-Misti" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Primi Calci" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'EsordientiFIGC-2014'!$B$1:$C$451</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'EsordientiFIGC-Misti'!$B$1:$B$91</definedName>
+    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Primi Calci'!$B$1:$B$191</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'PulciniFIGC-2015'!$B$1:$B$172</definedName>
+    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'PulciniFIGC-2016'!$B$1:$B$117</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'PulciniFIGC-Misti'!$B$1:$B$37</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -29,15 +37,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23366" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23203" uniqueCount="717">
   <si>
     <t xml:space="preserve">Data</t>
   </si>
   <si>
-    <t xml:space="preserve">Squadra Casa</t>
+    <t xml:space="preserve">Casa</t>
   </si>
   <si>
-    <t xml:space="preserve">Squadra Ospite</t>
+    <t xml:space="preserve">Ospite</t>
   </si>
   <si>
     <t xml:space="preserve">Categoria</t>
@@ -49,7 +57,7 @@
     <t xml:space="preserve">Ora</t>
   </si>
   <si>
-    <t xml:space="preserve">Indirizzo Campo</t>
+    <t xml:space="preserve">Indirizzo</t>
   </si>
   <si>
     <t xml:space="preserve">Giornata</t>
@@ -958,7 +966,7 @@
     <t xml:space="preserve">SAN GIOVANNI BIANCO - VIA BRIOLO ENTRO SNC</t>
   </si>
   <si>
-    <t xml:space="preserve">4/10/25</t>
+    <t xml:space="preserve">04/10/25</t>
   </si>
   <si>
     <t xml:space="preserve">A.C. PONTE S.P. - MAPELLO</t>
@@ -1036,7 +1044,7 @@
     <t xml:space="preserve">11/10/25</t>
   </si>
   <si>
-    <t xml:space="preserve">7/02/26</t>
+    <t xml:space="preserve">07/02/26</t>
   </si>
   <si>
     <t xml:space="preserve">18/10/25</t>
@@ -1051,16 +1059,16 @@
     <t xml:space="preserve">21/02/26</t>
   </si>
   <si>
-    <t xml:space="preserve">1/11/25</t>
+    <t xml:space="preserve">01/11/25</t>
   </si>
   <si>
     <t xml:space="preserve">28/02/26</t>
   </si>
   <si>
-    <t xml:space="preserve">8/11/25</t>
+    <t xml:space="preserve">08/11/25</t>
   </si>
   <si>
-    <t xml:space="preserve">7/03/26</t>
+    <t xml:space="preserve">07/03/26</t>
   </si>
   <si>
     <t xml:space="preserve">15/11/25</t>
@@ -1315,7 +1323,7 @@
     <t xml:space="preserve">BONATE SOTTO VIA GARIBALDI 15</t>
   </si>
   <si>
-    <t xml:space="preserve">LEMINA ALMENNO CALCIOSQ.B</t>
+    <t xml:space="preserve">LEMINE ALMENNO CALCIOSQ.B</t>
   </si>
   <si>
     <t xml:space="preserve">ALME SQ.B</t>
@@ -1936,25 +1944,16 @@
     <t xml:space="preserve"> Lallio VIA EVARISTO BASCHENIS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Trealbe Calcio A.S.D.</t>
+    <t xml:space="preserve"> Brembate VIA ORATORIO 20</t>
   </si>
   <si>
     <t xml:space="preserve"> Cisanese A.S.D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Treviolo VIA AERONAUTICA 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brembate VIA ORATORIO 20</t>
   </si>
   <si>
     <t xml:space="preserve"> Cisano Bergamasco VIA CA'DE VOLPI 7</t>
   </si>
   <si>
     <t xml:space="preserve"> Carvico VIA PEDRAZZI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trezzo sull'Adda VIA ROCCA 19</t>
   </si>
   <si>
     <t xml:space="preserve"> Villa d'AlmÃ¨ VIA RONCO BASSO 5</t>
@@ -1964,6 +1963,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Lallio VIA EVARISTO BASCHENIS 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trezzo sull'Adda VIA ROCCA 19</t>
   </si>
   <si>
     <t xml:space="preserve">CAROBBIO 2020</t>
@@ -1982,6 +1984,9 @@
   </si>
   <si>
     <t xml:space="preserve">MARIANO CALCIO A.S.D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.S. “velodromo” (E.A.) – Dalmine – Via delle Tofane </t>
   </si>
   <si>
     <t xml:space="preserve">DALMINE FRAZIONE MARIANO VIA PAPA GIOVANNI XXIII 24</t>
@@ -2036,6 +2041,9 @@
   </si>
   <si>
     <t xml:space="preserve">10:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.30</t>
   </si>
   <si>
     <t xml:space="preserve">ALZANO LOMBARDO FRAZIONE NESE VIA MONTELUNGO 3</t>
@@ -2155,15 +2163,6 @@
     <t xml:space="preserve"> SANTOMOBONO TERME VIA ALLE FONTI 2</t>
   </si>
   <si>
-    <t xml:space="preserve"> ALME SQ.B</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORATORI ALZANESE A.S.SQ.B</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ALME VIA OLIMPIA 8</t>
-  </si>
-  <si>
     <t xml:space="preserve"> BONATE SOTTO 1951 sq.B</t>
   </si>
   <si>
@@ -2176,16 +2175,19 @@
     <t xml:space="preserve"> CISANESE A.S.D. SQ.B</t>
   </si>
   <si>
-    <t xml:space="preserve"> CISANO BERGAMASCO VIA CA' DE' VOLPI 7</t>
+    <t xml:space="preserve"> ALME SQ.B</t>
   </si>
   <si>
-    <t xml:space="preserve"> ALZANO LOMBARDO FRAZIONE NESE VIA MONTELUNGO 3</t>
+    <t xml:space="preserve"> CISANO BERGAMASCO VIA CA' DE' VOLPI 7</t>
   </si>
   <si>
     <t xml:space="preserve"> ZOGNESE SQ.B</t>
   </si>
   <si>
     <t xml:space="preserve"> ZOGNO VIA CAMANCHE SNC - CAMANGHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALME VIA OLIMPIA 8</t>
   </si>
 </sst>
 </file>
@@ -2261,7 +2263,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2272,6 +2274,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2286,6 +2292,30 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -2297,9 +2327,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.6"/>
@@ -13879,22 +13909,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:J191"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K196" activeCellId="0" sqref="K196"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F197" activeCellId="0" sqref="F197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="53.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -13933,16 +13971,16 @@
         <v>382</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="0" t="s">
         <v>657</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>658</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
@@ -13965,7 +14003,7 @@
         <v>607</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>57</v>
@@ -13997,7 +14035,7 @@
         <v>422</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>57</v>
@@ -14029,7 +14067,7 @@
         <v>297</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>57</v>
@@ -14061,16 +14099,16 @@
         <v>301</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
@@ -14093,7 +14131,7 @@
         <v>377</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>57</v>
@@ -14125,7 +14163,7 @@
         <v>329</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>57</v>
@@ -14157,7 +14195,7 @@
         <v>376</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>57</v>
@@ -14166,7 +14204,7 @@
         <v>28</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>2</v>
@@ -14189,7 +14227,7 @@
         <v>310</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>57</v>
@@ -14198,7 +14236,7 @@
         <v>423</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>2</v>
@@ -14221,7 +14259,7 @@
         <v>463</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>57</v>
@@ -14230,7 +14268,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>2</v>
@@ -14253,16 +14291,16 @@
         <v>422</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="0" t="s">
         <v>657</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>658</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>3</v>
@@ -14285,7 +14323,7 @@
         <v>301</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>57</v>
@@ -14317,7 +14355,7 @@
         <v>382</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>57</v>
@@ -14349,7 +14387,7 @@
         <v>607</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>57</v>
@@ -14358,7 +14396,7 @@
         <v>28</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>3</v>
@@ -14381,16 +14419,16 @@
         <v>376</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>3</v>
@@ -14413,7 +14451,7 @@
         <v>310</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>57</v>
@@ -14445,7 +14483,7 @@
         <v>463</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>57</v>
@@ -14477,7 +14515,7 @@
         <v>377</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>57</v>
@@ -14486,7 +14524,7 @@
         <v>423</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>4</v>
@@ -14509,16 +14547,16 @@
         <v>297</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="G20" s="0" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>4</v>
@@ -14541,7 +14579,7 @@
         <v>607</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>57</v>
@@ -14550,7 +14588,7 @@
         <v>28</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>4</v>
@@ -14573,16 +14611,16 @@
         <v>329</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="0" t="s">
         <v>657</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>658</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>5</v>
@@ -14605,7 +14643,7 @@
         <v>376</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>57</v>
@@ -14637,7 +14675,7 @@
         <v>301</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>57</v>
@@ -14669,7 +14707,7 @@
         <v>422</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>57</v>
@@ -14701,7 +14739,7 @@
         <v>382</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>57</v>
@@ -14710,7 +14748,7 @@
         <v>28</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>5</v>
@@ -14733,16 +14771,16 @@
         <v>297</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="0" t="s">
         <v>657</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>658</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>6</v>
@@ -14765,7 +14803,7 @@
         <v>377</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>57</v>
@@ -14797,7 +14835,7 @@
         <v>607</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>57</v>
@@ -14829,7 +14867,7 @@
         <v>382</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>57</v>
@@ -14838,7 +14876,7 @@
         <v>423</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>6</v>
@@ -14861,16 +14899,16 @@
         <v>463</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="G31" s="0" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>6</v>
@@ -14893,7 +14931,7 @@
         <v>310</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>57</v>
@@ -14925,7 +14963,7 @@
         <v>376</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>57</v>
@@ -14957,7 +14995,7 @@
         <v>329</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>57</v>
@@ -14989,7 +15027,7 @@
         <v>301</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>57</v>
@@ -14998,7 +15036,7 @@
         <v>28</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>7</v>
@@ -15021,7 +15059,7 @@
         <v>422</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>57</v>
@@ -15030,7 +15068,7 @@
         <v>28</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>7</v>
@@ -15053,16 +15091,16 @@
         <v>377</v>
       </c>
       <c r="D37" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="0" t="s">
         <v>657</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>658</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>8</v>
@@ -15085,7 +15123,7 @@
         <v>297</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>57</v>
@@ -15117,7 +15155,7 @@
         <v>382</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>57</v>
@@ -15149,7 +15187,7 @@
         <v>301</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>57</v>
@@ -15181,16 +15219,16 @@
         <v>607</v>
       </c>
       <c r="D41" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E41" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="G41" s="0" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>8</v>
@@ -15213,7 +15251,7 @@
         <v>310</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>57</v>
@@ -15245,7 +15283,7 @@
         <v>463</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>57</v>
@@ -15277,7 +15315,7 @@
         <v>422</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>57</v>
@@ -15286,7 +15324,7 @@
         <v>28</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>9</v>
@@ -15309,7 +15347,7 @@
         <v>376</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>57</v>
@@ -15318,7 +15356,7 @@
         <v>423</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>9</v>
@@ -15341,7 +15379,7 @@
         <v>329</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>57</v>
@@ -15350,7 +15388,7 @@
         <v>28</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>9</v>
@@ -15367,13 +15405,13 @@
         <v>284</v>
       </c>
       <c r="B47" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="C47" s="0" t="s">
-        <v>663</v>
-      </c>
       <c r="D47" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>373</v>
@@ -15382,7 +15420,7 @@
         <v>28</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>1</v>
@@ -15402,10 +15440,10 @@
         <v>302</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>373</v>
@@ -15414,7 +15452,7 @@
         <v>28</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>1</v>
@@ -15434,10 +15472,10 @@
         <v>359</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>373</v>
@@ -15466,16 +15504,16 @@
         <v>596</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>373</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>579</v>
@@ -15495,13 +15533,13 @@
         <v>10</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>373</v>
@@ -15527,13 +15565,13 @@
         <v>10</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>478</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>373</v>
@@ -15559,19 +15597,19 @@
         <v>10</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>596</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>373</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>28</v>
+        <v>668</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>669</v>
@@ -15591,13 +15629,13 @@
         <v>10</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>302</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>373</v>
@@ -15606,7 +15644,7 @@
         <v>24</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>2</v>
@@ -15623,13 +15661,13 @@
         <v>33</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>596</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>373</v>
@@ -15638,7 +15676,7 @@
         <v>28</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>3</v>
@@ -15655,19 +15693,19 @@
         <v>33</v>
       </c>
       <c r="B56" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>665</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>666</v>
-      </c>
       <c r="D56" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>373</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>28</v>
+        <v>668</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>669</v>
@@ -15690,10 +15728,10 @@
         <v>478</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>373</v>
@@ -15722,10 +15760,10 @@
         <v>359</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>373</v>
@@ -15751,13 +15789,13 @@
         <v>38</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>359</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>373</v>
@@ -15783,13 +15821,13 @@
         <v>38</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>302</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>373</v>
@@ -15815,13 +15853,13 @@
         <v>38</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>373</v>
@@ -15830,7 +15868,7 @@
         <v>28</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>4</v>
@@ -15853,13 +15891,13 @@
         <v>478</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>373</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>579</v>
@@ -15882,10 +15920,10 @@
         <v>302</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>373</v>
@@ -15894,7 +15932,7 @@
         <v>28</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>5</v>
@@ -15911,13 +15949,13 @@
         <v>39</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>373</v>
@@ -15926,7 +15964,7 @@
         <v>24</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>5</v>
@@ -15946,10 +15984,10 @@
         <v>478</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>373</v>
@@ -15981,7 +16019,7 @@
         <v>596</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>373</v>
@@ -16007,13 +16045,13 @@
         <v>40</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>373</v>
@@ -16039,13 +16077,13 @@
         <v>40</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>359</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>373</v>
@@ -16054,7 +16092,7 @@
         <v>28</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>6</v>
@@ -16074,10 +16112,10 @@
         <v>478</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>373</v>
@@ -16109,13 +16147,13 @@
         <v>302</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>373</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>579</v>
@@ -16138,10 +16176,10 @@
         <v>302</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>373</v>
@@ -16150,7 +16188,7 @@
         <v>28</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>7</v>
@@ -16167,19 +16205,19 @@
         <v>41</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>373</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>28</v>
+        <v>668</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>669</v>
@@ -16199,13 +16237,13 @@
         <v>41</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>596</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>373</v>
@@ -16214,7 +16252,7 @@
         <v>24</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>7</v>
@@ -16237,7 +16275,7 @@
         <v>478</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E74" s="0" t="s">
         <v>373</v>
@@ -16263,13 +16301,13 @@
         <v>42</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>373</v>
@@ -16295,13 +16333,13 @@
         <v>42</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>373</v>
@@ -16310,7 +16348,7 @@
         <v>28</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>8</v>
@@ -16333,7 +16371,7 @@
         <v>302</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>373</v>
@@ -16362,10 +16400,10 @@
         <v>359</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>373</v>
@@ -16391,13 +16429,13 @@
         <v>43</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>596</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>373</v>
@@ -16429,7 +16467,7 @@
         <v>359</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>373</v>
@@ -16438,7 +16476,7 @@
         <v>28</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>9</v>
@@ -16455,19 +16493,19 @@
         <v>43</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>373</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>28</v>
+        <v>668</v>
       </c>
       <c r="G81" s="0" t="s">
         <v>669</v>
@@ -16487,13 +16525,13 @@
         <v>43</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>478</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E82" s="0" t="s">
         <v>373</v>
@@ -16502,7 +16540,7 @@
         <v>24</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>9</v>
@@ -16525,7 +16563,7 @@
         <v>671</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>146</v>
@@ -16557,7 +16595,7 @@
         <v>674</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E84" s="0" t="s">
         <v>146</v>
@@ -16589,7 +16627,7 @@
         <v>677</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>146</v>
@@ -16621,7 +16659,7 @@
         <v>680</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E86" s="0" t="s">
         <v>146</v>
@@ -16653,7 +16691,7 @@
         <v>683</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>146</v>
@@ -16685,7 +16723,7 @@
         <v>679</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E88" s="0" t="s">
         <v>146</v>
@@ -16717,7 +16755,7 @@
         <v>682</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E89" s="0" t="s">
         <v>146</v>
@@ -16749,7 +16787,7 @@
         <v>676</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E90" s="0" t="s">
         <v>146</v>
@@ -16781,7 +16819,7 @@
         <v>670</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E91" s="0" t="s">
         <v>146</v>
@@ -16813,7 +16851,7 @@
         <v>673</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E92" s="0" t="s">
         <v>146</v>
@@ -16845,7 +16883,7 @@
         <v>676</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E93" s="0" t="s">
         <v>146</v>
@@ -16877,7 +16915,7 @@
         <v>671</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E94" s="0" t="s">
         <v>146</v>
@@ -16909,7 +16947,7 @@
         <v>674</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E95" s="0" t="s">
         <v>146</v>
@@ -16941,7 +16979,7 @@
         <v>683</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E96" s="0" t="s">
         <v>146</v>
@@ -16973,7 +17011,7 @@
         <v>677</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E97" s="0" t="s">
         <v>146</v>
@@ -17005,7 +17043,7 @@
         <v>680</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>146</v>
@@ -17037,7 +17075,7 @@
         <v>679</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E99" s="0" t="s">
         <v>146</v>
@@ -17069,7 +17107,7 @@
         <v>682</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E100" s="0" t="s">
         <v>146</v>
@@ -17101,7 +17139,7 @@
         <v>673</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E101" s="0" t="s">
         <v>146</v>
@@ -17133,7 +17171,7 @@
         <v>674</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E102" s="0" t="s">
         <v>146</v>
@@ -17165,7 +17203,7 @@
         <v>671</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E103" s="0" t="s">
         <v>146</v>
@@ -17197,7 +17235,7 @@
         <v>676</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E104" s="0" t="s">
         <v>146</v>
@@ -17229,7 +17267,7 @@
         <v>683</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E105" s="0" t="s">
         <v>146</v>
@@ -17261,7 +17299,7 @@
         <v>677</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E106" s="0" t="s">
         <v>146</v>
@@ -17293,7 +17331,7 @@
         <v>670</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E107" s="0" t="s">
         <v>146</v>
@@ -17325,7 +17363,7 @@
         <v>673</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E108" s="0" t="s">
         <v>146</v>
@@ -17357,7 +17395,7 @@
         <v>683</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E109" s="0" t="s">
         <v>146</v>
@@ -17389,7 +17427,7 @@
         <v>679</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E110" s="0" t="s">
         <v>146</v>
@@ -17421,7 +17459,7 @@
         <v>674</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E111" s="0" t="s">
         <v>146</v>
@@ -17453,7 +17491,7 @@
         <v>680</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E112" s="0" t="s">
         <v>146</v>
@@ -17485,7 +17523,7 @@
         <v>676</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E113" s="0" t="s">
         <v>146</v>
@@ -17517,7 +17555,7 @@
         <v>682</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E114" s="0" t="s">
         <v>146</v>
@@ -17549,7 +17587,7 @@
         <v>671</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E115" s="0" t="s">
         <v>146</v>
@@ -17581,7 +17619,7 @@
         <v>670</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E116" s="0" t="s">
         <v>146</v>
@@ -17613,7 +17651,7 @@
         <v>677</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E117" s="0" t="s">
         <v>146</v>
@@ -17645,7 +17683,7 @@
         <v>674</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E118" s="0" t="s">
         <v>146</v>
@@ -17677,7 +17715,7 @@
         <v>680</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E119" s="0" t="s">
         <v>146</v>
@@ -17709,7 +17747,7 @@
         <v>683</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E120" s="0" t="s">
         <v>146</v>
@@ -17741,7 +17779,7 @@
         <v>671</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E121" s="0" t="s">
         <v>146</v>
@@ -17773,7 +17811,7 @@
         <v>679</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E122" s="0" t="s">
         <v>146</v>
@@ -17805,7 +17843,7 @@
         <v>682</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E123" s="0" t="s">
         <v>146</v>
@@ -17837,7 +17875,7 @@
         <v>676</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E124" s="0" t="s">
         <v>146</v>
@@ -17869,7 +17907,7 @@
         <v>677</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E125" s="0" t="s">
         <v>146</v>
@@ -17901,7 +17939,7 @@
         <v>673</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E126" s="0" t="s">
         <v>146</v>
@@ -17933,7 +17971,7 @@
         <v>670</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E127" s="0" t="s">
         <v>146</v>
@@ -17965,7 +18003,7 @@
         <v>692</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E128" s="0" t="s">
         <v>419</v>
@@ -17997,7 +18035,7 @@
         <v>402</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E129" s="0" t="s">
         <v>419</v>
@@ -18029,7 +18067,7 @@
         <v>697</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E130" s="0" t="s">
         <v>419</v>
@@ -18061,7 +18099,7 @@
         <v>700</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E131" s="0" t="s">
         <v>419</v>
@@ -18093,7 +18131,7 @@
         <v>451</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E132" s="0" t="s">
         <v>419</v>
@@ -18125,7 +18163,7 @@
         <v>699</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E133" s="0" t="s">
         <v>419</v>
@@ -18157,7 +18195,7 @@
         <v>691</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E134" s="0" t="s">
         <v>419</v>
@@ -18189,7 +18227,7 @@
         <v>696</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E135" s="0" t="s">
         <v>419</v>
@@ -18221,7 +18259,7 @@
         <v>697</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E136" s="0" t="s">
         <v>419</v>
@@ -18253,7 +18291,7 @@
         <v>691</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E137" s="0" t="s">
         <v>419</v>
@@ -18285,7 +18323,7 @@
         <v>402</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E138" s="0" t="s">
         <v>419</v>
@@ -18317,7 +18355,7 @@
         <v>702</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E139" s="0" t="s">
         <v>419</v>
@@ -18349,7 +18387,7 @@
         <v>696</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E140" s="0" t="s">
         <v>419</v>
@@ -18381,7 +18419,7 @@
         <v>697</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E141" s="0" t="s">
         <v>419</v>
@@ -18413,7 +18451,7 @@
         <v>699</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E142" s="0" t="s">
         <v>419</v>
@@ -18445,7 +18483,7 @@
         <v>700</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E143" s="0" t="s">
         <v>419</v>
@@ -18477,7 +18515,7 @@
         <v>402</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E144" s="0" t="s">
         <v>419</v>
@@ -18509,7 +18547,7 @@
         <v>702</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E145" s="0" t="s">
         <v>419</v>
@@ -18541,7 +18579,7 @@
         <v>691</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E146" s="0" t="s">
         <v>419</v>
@@ -18573,7 +18611,7 @@
         <v>692</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E147" s="0" t="s">
         <v>419</v>
@@ -18605,7 +18643,7 @@
         <v>697</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E148" s="0" t="s">
         <v>419</v>
@@ -18637,7 +18675,7 @@
         <v>699</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E149" s="0" t="s">
         <v>419</v>
@@ -18669,7 +18707,7 @@
         <v>702</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E150" s="0" t="s">
         <v>419</v>
@@ -18701,7 +18739,7 @@
         <v>696</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E151" s="0" t="s">
         <v>419</v>
@@ -18733,7 +18771,7 @@
         <v>691</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E152" s="0" t="s">
         <v>419</v>
@@ -18765,7 +18803,7 @@
         <v>402</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E153" s="0" t="s">
         <v>419</v>
@@ -18797,7 +18835,7 @@
         <v>692</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E154" s="0" t="s">
         <v>419</v>
@@ -18829,7 +18867,7 @@
         <v>451</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E155" s="0" t="s">
         <v>419</v>
@@ -18861,7 +18899,7 @@
         <v>402</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E156" s="0" t="s">
         <v>419</v>
@@ -18893,7 +18931,7 @@
         <v>702</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E157" s="0" t="s">
         <v>419</v>
@@ -18925,7 +18963,7 @@
         <v>697</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E158" s="0" t="s">
         <v>419</v>
@@ -18957,7 +18995,7 @@
         <v>700</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E159" s="0" t="s">
         <v>419</v>
@@ -18989,7 +19027,7 @@
         <v>692</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E160" s="0" t="s">
         <v>419</v>
@@ -19021,7 +19059,7 @@
         <v>451</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E161" s="0" t="s">
         <v>419</v>
@@ -19053,7 +19091,7 @@
         <v>691</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E162" s="0" t="s">
         <v>419</v>
@@ -19085,7 +19123,7 @@
         <v>696</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E163" s="0" t="s">
         <v>419</v>
@@ -19117,7 +19155,7 @@
         <v>705</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E164" s="0" t="s">
         <v>706</v>
@@ -19149,16 +19187,16 @@
         <v>709</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E165" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="H165" s="0" t="n">
         <v>1</v>
@@ -19175,22 +19213,22 @@
         <v>284</v>
       </c>
       <c r="B166" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="C166" s="0" t="s">
         <v>711</v>
       </c>
-      <c r="C166" s="0" t="s">
-        <v>712</v>
-      </c>
       <c r="D166" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E166" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>252</v>
+        <v>686</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="H166" s="0" t="n">
         <v>1</v>
@@ -19204,28 +19242,28 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>284</v>
+        <v>10</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E167" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>686</v>
+        <v>248</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" s="0" t="s">
         <v>605</v>
@@ -19239,22 +19277,22 @@
         <v>10</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="C168" s="0" t="s">
         <v>708</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E168" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>715</v>
+        <v>681</v>
       </c>
       <c r="H168" s="0" t="n">
         <v>2</v>
@@ -19271,13 +19309,13 @@
         <v>10</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E169" s="0" t="s">
         <v>706</v>
@@ -19286,7 +19324,7 @@
         <v>238</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>681</v>
+        <v>715</v>
       </c>
       <c r="H169" s="0" t="n">
         <v>2</v>
@@ -19300,28 +19338,28 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E170" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="G170" s="0" t="s">
         <v>716</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I170" s="0" t="s">
         <v>605</v>
@@ -19332,28 +19370,28 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E171" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I171" s="0" t="s">
         <v>605</v>
@@ -19367,22 +19405,22 @@
         <v>33</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E172" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>232</v>
+        <v>686</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="H172" s="0" t="n">
         <v>3</v>
@@ -19396,28 +19434,28 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E173" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I173" s="0" t="s">
         <v>605</v>
@@ -19428,28 +19466,28 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E174" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>686</v>
+        <v>238</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I174" s="0" t="s">
         <v>605</v>
@@ -19460,28 +19498,28 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E175" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I175" s="0" t="s">
         <v>605</v>
@@ -19492,28 +19530,28 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>712</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E176" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I176" s="0" t="s">
         <v>605</v>
@@ -19524,7 +19562,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B177" s="0" t="s">
         <v>711</v>
@@ -19533,19 +19571,19 @@
         <v>709</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E177" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I177" s="0" t="s">
         <v>605</v>
@@ -19556,28 +19594,28 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E178" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>238</v>
+        <v>686</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I178" s="0" t="s">
         <v>605</v>
@@ -19588,28 +19626,28 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="C179" s="0" t="s">
         <v>714</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E179" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I179" s="0" t="s">
         <v>605</v>
@@ -19620,28 +19658,28 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E180" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>232</v>
+        <v>693</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I180" s="0" t="s">
         <v>605</v>
@@ -19652,28 +19690,28 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E181" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I181" s="0" t="s">
         <v>605</v>
@@ -19684,28 +19722,28 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E182" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>686</v>
+        <v>238</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I182" s="0" t="s">
         <v>605</v>
@@ -19716,28 +19754,28 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E183" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="G183" s="0" t="s">
         <v>716</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I183" s="0" t="s">
         <v>605</v>
@@ -19748,28 +19786,28 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E184" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I184" s="0" t="s">
         <v>605</v>
@@ -19780,28 +19818,28 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E185" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>693</v>
+        <v>238</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I185" s="0" t="s">
         <v>605</v>
@@ -19812,28 +19850,28 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E186" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>252</v>
+        <v>693</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I186" s="0" t="s">
         <v>605</v>
@@ -19844,28 +19882,28 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E187" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I187" s="0" t="s">
         <v>605</v>
@@ -19876,28 +19914,28 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E188" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>710</v>
+        <v>681</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I188" s="0" t="s">
         <v>605</v>
@@ -19908,28 +19946,28 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C189" s="0" t="s">
         <v>704</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E189" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I189" s="0" t="s">
         <v>605</v>
@@ -19940,28 +19978,28 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E190" s="0" t="s">
         <v>706</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="G190" s="0" t="s">
         <v>716</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I190" s="0" t="s">
         <v>605</v>
@@ -19972,16 +20010,16 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E191" s="0" t="s">
         <v>706</v>
@@ -19990,10 +20028,10 @@
         <v>238</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I191" s="0" t="s">
         <v>605</v>
@@ -20002,263 +20040,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B192" s="0" t="s">
-        <v>704</v>
-      </c>
-      <c r="C192" s="0" t="s">
-        <v>717</v>
-      </c>
-      <c r="D192" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="E192" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="G192" s="0" t="s">
-        <v>707</v>
-      </c>
-      <c r="H192" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="I192" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="J192" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B193" s="0" t="s">
-        <v>711</v>
-      </c>
-      <c r="C193" s="0" t="s">
-        <v>714</v>
-      </c>
-      <c r="D193" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="E193" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G193" s="0" t="s">
-        <v>703</v>
-      </c>
-      <c r="H193" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="I193" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="J193" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B194" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="C194" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="D194" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="E194" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G194" s="0" t="s">
-        <v>681</v>
-      </c>
-      <c r="H194" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="I194" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="J194" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B195" s="0" t="s">
-        <v>713</v>
-      </c>
-      <c r="C195" s="0" t="s">
-        <v>709</v>
-      </c>
-      <c r="D195" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="E195" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="G195" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="H195" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="I195" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="J195" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B196" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="C196" s="0" t="s">
-        <v>704</v>
-      </c>
-      <c r="D196" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="E196" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G196" s="0" t="s">
-        <v>701</v>
-      </c>
-      <c r="H196" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I196" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="J196" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B197" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="C197" s="0" t="s">
-        <v>713</v>
-      </c>
-      <c r="D197" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="E197" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G197" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="H197" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I197" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="J197" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B198" s="0" t="s">
-        <v>709</v>
-      </c>
-      <c r="C198" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="D198" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="E198" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G198" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="H198" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I198" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="J198" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B199" s="0" t="s">
-        <v>717</v>
-      </c>
-      <c r="C199" s="0" t="s">
-        <v>711</v>
-      </c>
-      <c r="D199" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="E199" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G199" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="H199" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I199" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="J199" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="B1:B191"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -20266,6 +20049,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20276,13 +20060,13 @@
   </sheetPr>
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24431,11 +24215,11 @@
   </sheetPr>
   <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E380" activeCellId="0" sqref="E380"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.65"/>
   </cols>
@@ -41770,11 +41554,11 @@
   </sheetPr>
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F98" activeCellId="0" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.57"/>
   </cols>
@@ -41783,7 +41567,7 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -41956,7 +41740,7 @@
         <v>57</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>299</v>
@@ -42436,7 +42220,7 @@
         <v>57</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>299</v>
@@ -42660,7 +42444,7 @@
         <v>57</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>299</v>
@@ -42948,7 +42732,7 @@
         <v>57</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>299</v>
@@ -43300,7 +43084,7 @@
         <v>57</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>299</v>
@@ -43524,7 +43308,7 @@
         <v>57</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>299</v>
@@ -43876,7 +43660,7 @@
         <v>57</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>299</v>
@@ -44260,7 +44044,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>299</v>
@@ -44676,7 +44460,7 @@
         <v>57</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>299</v>
@@ -44692,6 +44476,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B91"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -44699,6 +44484,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -44709,22 +44495,21 @@
   </sheetPr>
   <dimension ref="A1:J451"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E272" activeCellId="0" sqref="E272"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A361" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="46.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="47.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59178,23 +58963,30 @@
   <dimension ref="A1:J451"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="F185" activeCellId="0" sqref="F185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="31.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="52.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
@@ -65092,7 +64884,7 @@
         <v>146</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="G185" s="0" t="s">
         <v>482</v>
@@ -65604,7 +65396,7 @@
         <v>146</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="G201" s="0" t="s">
         <v>482</v>
@@ -65732,7 +65524,7 @@
         <v>146</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="G205" s="0" t="s">
         <v>482</v>
@@ -66180,7 +65972,7 @@
         <v>146</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="G219" s="0" t="s">
         <v>482</v>
@@ -66404,7 +66196,7 @@
         <v>146</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="G226" s="0" t="s">
         <v>482</v>
@@ -66884,7 +66676,7 @@
         <v>146</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="G241" s="0" t="s">
         <v>482</v>
@@ -67044,7 +66836,7 @@
         <v>146</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="G246" s="0" t="s">
         <v>482</v>
@@ -67332,7 +67124,7 @@
         <v>146</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="G255" s="0" t="s">
         <v>482</v>
@@ -67844,7 +67636,7 @@
         <v>146</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="G271" s="0" t="s">
         <v>482</v>
@@ -68036,7 +67828,7 @@
         <v>14</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>492</v>
+        <v>28</v>
       </c>
       <c r="G277" s="0" t="s">
         <v>512</v>
@@ -68292,7 +68084,7 @@
         <v>14</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>492</v>
+        <v>28</v>
       </c>
       <c r="G285" s="0" t="s">
         <v>512</v>
@@ -68772,7 +68564,7 @@
         <v>14</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>492</v>
+        <v>28</v>
       </c>
       <c r="G300" s="0" t="s">
         <v>512</v>
@@ -68964,7 +68756,7 @@
         <v>14</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>492</v>
+        <v>28</v>
       </c>
       <c r="G306" s="0" t="s">
         <v>512</v>
@@ -69444,7 +69236,7 @@
         <v>14</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>492</v>
+        <v>28</v>
       </c>
       <c r="G321" s="0" t="s">
         <v>512</v>
@@ -69604,7 +69396,7 @@
         <v>14</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>492</v>
+        <v>28</v>
       </c>
       <c r="G326" s="0" t="s">
         <v>512</v>
@@ -69956,7 +69748,7 @@
         <v>14</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>492</v>
+        <v>28</v>
       </c>
       <c r="G337" s="0" t="s">
         <v>512</v>
@@ -70340,7 +70132,7 @@
         <v>14</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>492</v>
+        <v>28</v>
       </c>
       <c r="G349" s="0" t="s">
         <v>512</v>
@@ -70532,7 +70324,7 @@
         <v>14</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>492</v>
+        <v>28</v>
       </c>
       <c r="G355" s="0" t="s">
         <v>512</v>
@@ -73620,6 +73412,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:C451"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -73627,6 +73420,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -73637,20 +73431,28 @@
   </sheetPr>
   <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D127" activeCellId="0" sqref="D127"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B91" activeCellId="0" sqref="B91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="48.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -79151,6 +78953,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B172"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -79158,6 +78961,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -79166,19 +78970,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J126"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="48.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.41"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -79351,7 +79166,7 @@
         <v>57</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>608</v>
@@ -79543,7 +79358,7 @@
         <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>608</v>
@@ -79959,7 +79774,7 @@
         <v>57</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>608</v>
@@ -80023,7 +79838,7 @@
         <v>57</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>608</v>
@@ -80247,7 +80062,7 @@
         <v>57</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>608</v>
@@ -81896,13 +81711,13 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>284</v>
+        <v>10</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>604</v>
@@ -81914,10 +81729,10 @@
         <v>238</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" s="0" t="s">
         <v>605</v>
@@ -81931,10 +81746,10 @@
         <v>10</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>604</v>
@@ -81943,10 +81758,10 @@
         <v>79</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>2</v>
@@ -81963,10 +81778,10 @@
         <v>10</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>604</v>
@@ -81975,10 +81790,10 @@
         <v>79</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>2</v>
@@ -81995,10 +81810,10 @@
         <v>10</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>604</v>
@@ -82007,10 +81822,10 @@
         <v>79</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>238</v>
+        <v>406</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>2</v>
@@ -82024,13 +81839,13 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>604</v>
@@ -82039,13 +81854,13 @@
         <v>79</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>641</v>
+        <v>443</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90" s="0" t="s">
         <v>605</v>
@@ -82056,13 +81871,13 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>604</v>
@@ -82071,13 +81886,13 @@
         <v>79</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>406</v>
+        <v>232</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I91" s="0" t="s">
         <v>605</v>
@@ -82091,10 +81906,10 @@
         <v>33</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>604</v>
@@ -82103,10 +81918,10 @@
         <v>79</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>443</v>
+        <v>631</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>3</v>
@@ -82123,10 +81938,10 @@
         <v>33</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>604</v>
@@ -82135,10 +81950,10 @@
         <v>79</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>3</v>
@@ -82152,13 +81967,13 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>604</v>
@@ -82167,13 +81982,13 @@
         <v>79</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I94" s="0" t="s">
         <v>605</v>
@@ -82184,13 +81999,13 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>604</v>
@@ -82199,13 +82014,13 @@
         <v>79</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I95" s="0" t="s">
         <v>605</v>
@@ -82216,13 +82031,13 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>604</v>
@@ -82234,10 +82049,10 @@
         <v>238</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I96" s="0" t="s">
         <v>605</v>
@@ -82251,10 +82066,10 @@
         <v>38</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>604</v>
@@ -82263,10 +82078,10 @@
         <v>79</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>232</v>
+        <v>406</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>4</v>
@@ -82280,13 +82095,13 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>604</v>
@@ -82295,13 +82110,13 @@
         <v>79</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>638</v>
+        <v>443</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I98" s="0" t="s">
         <v>605</v>
@@ -82312,13 +82127,13 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>604</v>
@@ -82330,10 +82145,10 @@
         <v>238</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I99" s="0" t="s">
         <v>605</v>
@@ -82344,13 +82159,13 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B100" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="C100" s="0" t="s">
         <v>630</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>625</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>604</v>
@@ -82359,13 +82174,13 @@
         <v>79</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I100" s="0" t="s">
         <v>605</v>
@@ -82376,13 +82191,13 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>604</v>
@@ -82391,13 +82206,13 @@
         <v>79</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>406</v>
+        <v>238</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>642</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I101" s="0" t="s">
         <v>605</v>
@@ -82408,13 +82223,13 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B102" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="C102" s="0" t="s">
         <v>624</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>632</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>604</v>
@@ -82423,13 +82238,13 @@
         <v>79</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>443</v>
+        <v>640</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I102" s="0" t="s">
         <v>605</v>
@@ -82440,13 +82255,13 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>604</v>
@@ -82458,10 +82273,10 @@
         <v>238</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I103" s="0" t="s">
         <v>605</v>
@@ -82472,13 +82287,13 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B104" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="C104" s="0" t="s">
         <v>636</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>630</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>604</v>
@@ -82487,13 +82302,13 @@
         <v>79</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I104" s="0" t="s">
         <v>605</v>
@@ -82504,13 +82319,13 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>604</v>
@@ -82519,13 +82334,13 @@
         <v>79</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>238</v>
+        <v>406</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I105" s="0" t="s">
         <v>605</v>
@@ -82536,13 +82351,13 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>604</v>
@@ -82551,13 +82366,13 @@
         <v>79</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>641</v>
+        <v>443</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I106" s="0" t="s">
         <v>605</v>
@@ -82568,13 +82383,13 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>604</v>
@@ -82583,13 +82398,13 @@
         <v>79</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I107" s="0" t="s">
         <v>605</v>
@@ -82600,13 +82415,13 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>604</v>
@@ -82621,7 +82436,7 @@
         <v>638</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I108" s="0" t="s">
         <v>605</v>
@@ -82632,13 +82447,13 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>604</v>
@@ -82650,10 +82465,10 @@
         <v>238</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I109" s="0" t="s">
         <v>605</v>
@@ -82664,13 +82479,13 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>604</v>
@@ -82679,13 +82494,13 @@
         <v>79</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>644</v>
+        <v>443</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I110" s="0" t="s">
         <v>605</v>
@@ -82696,10 +82511,10 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>625</v>
@@ -82711,13 +82526,13 @@
         <v>79</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>406</v>
+        <v>232</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I111" s="0" t="s">
         <v>605</v>
@@ -82728,13 +82543,13 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>604</v>
@@ -82743,13 +82558,13 @@
         <v>79</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>443</v>
+        <v>641</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I112" s="0" t="s">
         <v>605</v>
@@ -82760,10 +82575,10 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>627</v>
@@ -82775,13 +82590,13 @@
         <v>79</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>248</v>
+        <v>406</v>
       </c>
       <c r="G113" s="0" t="s">
         <v>639</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I113" s="0" t="s">
         <v>605</v>
@@ -82792,13 +82607,13 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>604</v>
@@ -82810,10 +82625,10 @@
         <v>238</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I114" s="0" t="s">
         <v>605</v>
@@ -82824,13 +82639,13 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>604</v>
@@ -82839,13 +82654,13 @@
         <v>79</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="G115" s="0" t="s">
         <v>637</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I115" s="0" t="s">
         <v>605</v>
@@ -82856,13 +82671,13 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>604</v>
@@ -82874,10 +82689,10 @@
         <v>238</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I116" s="0" t="s">
         <v>605</v>
@@ -82888,13 +82703,13 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>604</v>
@@ -82903,13 +82718,13 @@
         <v>79</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>443</v>
+        <v>642</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I117" s="0" t="s">
         <v>605</v>
@@ -82918,295 +82733,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>626</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>625</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="E118" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G118" s="0" t="s">
-        <v>643</v>
-      </c>
-      <c r="H118" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="I118" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="J118" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="E119" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G119" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="H119" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="I119" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="J119" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G120" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="H120" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="I120" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="J120" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="E121" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="G121" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="H121" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="I121" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="J121" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="E122" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G122" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="H122" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I122" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="J122" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="E123" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G123" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="H123" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I123" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="J123" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>626</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G124" s="0" t="s">
-        <v>640</v>
-      </c>
-      <c r="H124" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I124" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="J124" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="E125" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G125" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="H125" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I125" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="J125" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>625</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="E126" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G126" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="H126" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I126" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="J126" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="B1:B117"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -83214,6 +82742,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -83225,16 +82754,19 @@
   <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="55.44"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -83259,36 +82791,6 @@
         <v>8</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1" s="0" t="s">
         <v>9</v>
       </c>
     </row>
@@ -83297,13 +82799,13 @@
         <v>284</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>425</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>57</v>
@@ -83312,7 +82814,7 @@
         <v>227</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
@@ -83327,13 +82829,13 @@
         <v>284</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="T2" s="0" t="s">
         <v>425</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V2" s="0" t="s">
         <v>57</v>
@@ -83342,7 +82844,7 @@
         <v>227</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Y2" s="0" t="n">
         <v>1</v>
@@ -83365,7 +82867,7 @@
         <v>477</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>57</v>
@@ -83374,7 +82876,7 @@
         <v>357</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
@@ -83395,7 +82897,7 @@
         <v>477</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V3" s="0" t="s">
         <v>57</v>
@@ -83404,7 +82906,7 @@
         <v>357</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="Y3" s="0" t="n">
         <v>1</v>
@@ -83424,10 +82926,10 @@
         <v>297</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>57</v>
@@ -83454,10 +82956,10 @@
         <v>297</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V4" s="0" t="s">
         <v>57</v>
@@ -83483,13 +82985,13 @@
         <v>284</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>286</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>57</v>
@@ -83497,8 +82999,8 @@
       <c r="F5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>651</v>
+      <c r="G5" s="3" t="s">
+        <v>649</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
@@ -83513,13 +83015,13 @@
         <v>284</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="T5" s="0" t="s">
         <v>286</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V5" s="0" t="s">
         <v>57</v>
@@ -83528,7 +83030,7 @@
         <v>34</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Y5" s="0" t="n">
         <v>1</v>
@@ -83545,13 +83047,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>302</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>57</v>
@@ -83560,7 +83062,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>2</v>
@@ -83575,13 +83077,13 @@
         <v>10</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="T6" s="0" t="s">
         <v>302</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V6" s="0" t="s">
         <v>57</v>
@@ -83590,7 +83092,7 @@
         <v>15</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="Y6" s="0" t="n">
         <v>2</v>
@@ -83610,10 +83112,10 @@
         <v>286</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>57</v>
@@ -83622,7 +83124,7 @@
         <v>24</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>2</v>
@@ -83640,10 +83142,10 @@
         <v>286</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V7" s="0" t="s">
         <v>57</v>
@@ -83652,7 +83154,7 @@
         <v>24</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="Y7" s="0" t="n">
         <v>2</v>
@@ -83672,10 +83174,10 @@
         <v>477</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>57</v>
@@ -83684,7 +83186,7 @@
         <v>34</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>2</v>
@@ -83702,10 +83204,10 @@
         <v>477</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V8" s="0" t="s">
         <v>57</v>
@@ -83714,7 +83216,7 @@
         <v>34</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Y8" s="0" t="n">
         <v>2</v>
@@ -83737,7 +83239,7 @@
         <v>297</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>57</v>
@@ -83746,7 +83248,7 @@
         <v>28</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>2</v>
@@ -83767,7 +83269,7 @@
         <v>297</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V9" s="0" t="s">
         <v>57</v>
@@ -83776,7 +83278,7 @@
         <v>28</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Y9" s="0" t="n">
         <v>2</v>
@@ -83793,13 +83295,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>57</v>
@@ -83808,7 +83310,7 @@
         <v>227</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>3</v>
@@ -83823,13 +83325,13 @@
         <v>33</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V10" s="0" t="s">
         <v>57</v>
@@ -83838,7 +83340,7 @@
         <v>227</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Y10" s="0" t="n">
         <v>3</v>
@@ -83858,10 +83360,10 @@
         <v>477</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>57</v>
@@ -83870,7 +83372,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>3</v>
@@ -83888,10 +83390,10 @@
         <v>477</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V11" s="0" t="s">
         <v>57</v>
@@ -83900,7 +83402,7 @@
         <v>34</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Y11" s="0" t="n">
         <v>3</v>
@@ -83923,7 +83425,7 @@
         <v>382</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>57</v>
@@ -83932,7 +83434,7 @@
         <v>357</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>3</v>
@@ -83953,7 +83455,7 @@
         <v>382</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V12" s="0" t="s">
         <v>57</v>
@@ -83962,7 +83464,7 @@
         <v>357</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="Y12" s="0" t="n">
         <v>3</v>
@@ -83985,7 +83487,7 @@
         <v>425</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>57</v>
@@ -84015,7 +83517,7 @@
         <v>425</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V13" s="0" t="s">
         <v>57</v>
@@ -84047,7 +83549,7 @@
         <v>302</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>57</v>
@@ -84077,7 +83579,7 @@
         <v>302</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V14" s="0" t="s">
         <v>57</v>
@@ -84103,13 +83605,13 @@
         <v>38</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>477</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>57</v>
@@ -84118,7 +83620,7 @@
         <v>227</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>4</v>
@@ -84133,13 +83635,13 @@
         <v>38</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="T15" s="0" t="s">
         <v>477</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V15" s="0" t="s">
         <v>57</v>
@@ -84148,7 +83650,7 @@
         <v>227</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Y15" s="0" t="n">
         <v>4</v>
@@ -84171,7 +83673,7 @@
         <v>297</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>57</v>
@@ -84180,7 +83682,7 @@
         <v>24</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>4</v>
@@ -84201,7 +83703,7 @@
         <v>297</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V16" s="0" t="s">
         <v>57</v>
@@ -84210,7 +83712,7 @@
         <v>24</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="Y16" s="0" t="n">
         <v>4</v>
@@ -84230,10 +83732,10 @@
         <v>382</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>57</v>
@@ -84242,7 +83744,7 @@
         <v>28</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>4</v>
@@ -84260,10 +83762,10 @@
         <v>382</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V17" s="0" t="s">
         <v>57</v>
@@ -84272,7 +83774,7 @@
         <v>28</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Y17" s="0" t="n">
         <v>4</v>
@@ -84289,13 +83791,13 @@
         <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>425</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>57</v>
@@ -84304,7 +83806,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>5</v>
@@ -84319,13 +83821,13 @@
         <v>39</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="T18" s="0" t="s">
         <v>425</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V18" s="0" t="s">
         <v>57</v>
@@ -84334,7 +83836,7 @@
         <v>15</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="Y18" s="0" t="n">
         <v>5</v>
@@ -84357,7 +83859,7 @@
         <v>382</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>57</v>
@@ -84366,7 +83868,7 @@
         <v>34</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>5</v>
@@ -84387,7 +83889,7 @@
         <v>382</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V19" s="0" t="s">
         <v>57</v>
@@ -84396,7 +83898,7 @@
         <v>34</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Y19" s="0" t="n">
         <v>5</v>
@@ -84419,7 +83921,7 @@
         <v>286</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>57</v>
@@ -84428,7 +83930,7 @@
         <v>357</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>5</v>
@@ -84449,7 +83951,7 @@
         <v>286</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V20" s="0" t="s">
         <v>57</v>
@@ -84458,7 +83960,7 @@
         <v>357</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="Y20" s="0" t="n">
         <v>5</v>
@@ -84478,10 +83980,10 @@
         <v>297</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>57</v>
@@ -84508,10 +84010,10 @@
         <v>297</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V21" s="0" t="s">
         <v>57</v>
@@ -84543,7 +84045,7 @@
         <v>382</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>57</v>
@@ -84573,7 +84075,7 @@
         <v>382</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V22" s="0" t="s">
         <v>57</v>
@@ -84599,13 +84101,13 @@
         <v>40</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>297</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>57</v>
@@ -84614,7 +84116,7 @@
         <v>227</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>6</v>
@@ -84629,13 +84131,13 @@
         <v>40</v>
       </c>
       <c r="S23" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="T23" s="0" t="s">
         <v>297</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V23" s="0" t="s">
         <v>57</v>
@@ -84644,7 +84146,7 @@
         <v>227</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Y23" s="0" t="n">
         <v>6</v>
@@ -84664,10 +84166,10 @@
         <v>286</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>57</v>
@@ -84676,7 +84178,7 @@
         <v>24</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>6</v>
@@ -84694,10 +84196,10 @@
         <v>286</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V24" s="0" t="s">
         <v>57</v>
@@ -84706,7 +84208,7 @@
         <v>24</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="Y24" s="0" t="n">
         <v>6</v>
@@ -84723,13 +84225,13 @@
         <v>40</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>302</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>57</v>
@@ -84737,8 +84239,8 @@
       <c r="F25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="0" t="s">
-        <v>651</v>
+      <c r="G25" s="3" t="s">
+        <v>649</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>6</v>
@@ -84753,13 +84255,13 @@
         <v>40</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="T25" s="0" t="s">
         <v>302</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V25" s="0" t="s">
         <v>57</v>
@@ -84768,7 +84270,7 @@
         <v>34</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Y25" s="0" t="n">
         <v>6</v>
@@ -84785,13 +84287,13 @@
         <v>41</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>57</v>
@@ -84800,7 +84302,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>7</v>
@@ -84815,13 +84317,13 @@
         <v>41</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V26" s="0" t="s">
         <v>57</v>
@@ -84830,7 +84332,7 @@
         <v>15</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="Y26" s="0" t="n">
         <v>7</v>
@@ -84853,7 +84355,7 @@
         <v>425</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>57</v>
@@ -84862,7 +84364,7 @@
         <v>34</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>7</v>
@@ -84883,7 +84385,7 @@
         <v>425</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V27" s="0" t="s">
         <v>57</v>
@@ -84892,7 +84394,7 @@
         <v>34</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Y27" s="0" t="n">
         <v>7</v>
@@ -84912,10 +84414,10 @@
         <v>302</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>57</v>
@@ -84924,7 +84426,7 @@
         <v>357</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>7</v>
@@ -84942,10 +84444,10 @@
         <v>302</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V28" s="0" t="s">
         <v>57</v>
@@ -84954,7 +84456,7 @@
         <v>357</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="Y28" s="0" t="n">
         <v>7</v>
@@ -84977,7 +84479,7 @@
         <v>286</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>57</v>
@@ -84986,7 +84488,7 @@
         <v>28</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>7</v>
@@ -85007,7 +84509,7 @@
         <v>286</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V29" s="0" t="s">
         <v>57</v>
@@ -85016,7 +84518,7 @@
         <v>28</v>
       </c>
       <c r="X29" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Y29" s="0" t="n">
         <v>7</v>
@@ -85033,13 +84535,13 @@
         <v>42</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>57</v>
@@ -85048,7 +84550,7 @@
         <v>227</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>8</v>
@@ -85063,13 +84565,13 @@
         <v>42</v>
       </c>
       <c r="S30" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V30" s="0" t="s">
         <v>57</v>
@@ -85078,7 +84580,7 @@
         <v>227</v>
       </c>
       <c r="X30" s="0" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Y30" s="0" t="n">
         <v>8</v>
@@ -85101,7 +84603,7 @@
         <v>425</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>57</v>
@@ -85110,7 +84612,7 @@
         <v>24</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>8</v>
@@ -85131,7 +84633,7 @@
         <v>425</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V31" s="0" t="s">
         <v>57</v>
@@ -85140,7 +84642,7 @@
         <v>24</v>
       </c>
       <c r="X31" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="Y31" s="0" t="n">
         <v>8</v>
@@ -85163,7 +84665,7 @@
         <v>477</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>57</v>
@@ -85193,7 +84695,7 @@
         <v>477</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V32" s="0" t="s">
         <v>57</v>
@@ -85219,13 +84721,13 @@
         <v>42</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>382</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>57</v>
@@ -85233,8 +84735,8 @@
       <c r="F33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="0" t="s">
-        <v>651</v>
+      <c r="G33" s="3" t="s">
+        <v>649</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>8</v>
@@ -85249,13 +84751,13 @@
         <v>42</v>
       </c>
       <c r="S33" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="T33" s="0" t="s">
         <v>382</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V33" s="0" t="s">
         <v>57</v>
@@ -85264,7 +84766,7 @@
         <v>34</v>
       </c>
       <c r="X33" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Y33" s="0" t="n">
         <v>8</v>
@@ -85284,10 +84786,10 @@
         <v>425</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>57</v>
@@ -85314,10 +84816,10 @@
         <v>425</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V34" s="0" t="s">
         <v>57</v>
@@ -85349,7 +84851,7 @@
         <v>286</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>57</v>
@@ -85358,7 +84860,7 @@
         <v>34</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>9</v>
@@ -85379,7 +84881,7 @@
         <v>286</v>
       </c>
       <c r="U35" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V35" s="0" t="s">
         <v>57</v>
@@ -85388,7 +84890,7 @@
         <v>34</v>
       </c>
       <c r="X35" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Y35" s="0" t="n">
         <v>9</v>
@@ -85411,7 +84913,7 @@
         <v>297</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>57</v>
@@ -85420,7 +84922,7 @@
         <v>357</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>9</v>
@@ -85441,7 +84943,7 @@
         <v>297</v>
       </c>
       <c r="U36" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V36" s="0" t="s">
         <v>57</v>
@@ -85450,7 +84952,7 @@
         <v>357</v>
       </c>
       <c r="X36" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="Y36" s="0" t="n">
         <v>9</v>
@@ -85470,10 +84972,10 @@
         <v>382</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>57</v>
@@ -85482,7 +84984,7 @@
         <v>28</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>9</v>
@@ -85500,10 +85002,10 @@
         <v>382</v>
       </c>
       <c r="T37" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="U37" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V37" s="0" t="s">
         <v>57</v>
@@ -85512,7 +85014,7 @@
         <v>28</v>
       </c>
       <c r="X37" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Y37" s="0" t="n">
         <v>9</v>
@@ -85525,6 +85027,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B37"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -85532,5 +85035,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/resources/AllCalendars.xlsx
+++ b/app/resources/AllCalendars.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="EsordientiCSI-7" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,7 @@
     <sheet name="Primi Calci" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Giovanissimi-2011" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="GiovanissimiFIGC-2012" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Sample" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'EsordientiFIGC-2013'!$E$1:$E$226</definedName>
@@ -31,10 +32,10 @@
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'PulciniFIGC-2015'!$B$1</definedName>
     <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'PulciniFIGC-2016'!$B$1</definedName>
     <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'PulciniFIGC-Misti'!$B$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'PulciniFIGC-2015'!$B$1:$B$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'PulciniFIGC-2016'!$B$1:$B$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'PulciniFIGC-Misti'!$B$1:$B$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Primi Calci'!$E$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">'PulciniFIGC-2015'!$B$1:$B$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">'PulciniFIGC-2016'!$B$1:$B$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">'PulciniFIGC-Misti'!$B$1:$B$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primi Calci'!$E$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14122" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14388" uniqueCount="706">
   <si>
     <t xml:space="preserve">Data</t>
   </si>
@@ -2104,6 +2105,66 @@
   </si>
   <si>
     <t xml:space="preserve">VIA ROMA, 62 Urgnano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">squadra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ora di gioco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indirizzo campo di gioco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOVA MONTELLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primi Calci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTELLO VIA L.ARIOSTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLISPORTIVA 2 LAGHI SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIRTUS LOVERE 2025 A.sq.B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOVERE VIA PAGLIA 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLISPORTIVA 2 LAGHI SQ.B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIRTUS LOVERE 2025 A.S.D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERIATE VIA PO 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRUSAPORTO VIA BELVEDERE 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPORT CASAZZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOVERE VIA CANNETO 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASAZZA PIAZZA PIEVE 4</t>
   </si>
 </sst>
 </file>
@@ -2188,7 +2249,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2215,6 +2276,10 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2273,10 +2338,10 @@
   <dimension ref="A1:J361"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="G2:G37 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83203125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.84765625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.45"/>
@@ -13861,20 +13926,20 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="G2:G37 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="53.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14015,16 +14080,16 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A253" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="1" sqref="G2:G37 H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="45.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="45.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22239,18 +22304,18 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B214" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="G2:G37 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="47.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="47.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.63"/>
@@ -29956,6 +30021,1308 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="22.19"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="7" t="str">
+        <f aca="false">VLOOKUP(B2,M:O,3,0)</f>
+        <v>11:00</v>
+      </c>
+      <c r="G2" s="7" t="str">
+        <f aca="false">VLOOKUP(B2,M:P,4,0)</f>
+        <v>BRUSAPORTO VIA BELVEDERE 1</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f aca="false">VLOOKUP(B3,M:O,3,0)</f>
+        <v>10:00</v>
+      </c>
+      <c r="G3" s="7" t="str">
+        <f aca="false">VLOOKUP(B3,M:P,4,0)</f>
+        <v>SOVERE VIA CANNETO 4</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f aca="false">VLOOKUP(B4,M:O,3,0)</f>
+        <v>14:00</v>
+      </c>
+      <c r="G4" s="7" t="str">
+        <f aca="false">VLOOKUP(B4,M:P,4,0)</f>
+        <v>SERIATE VIA PO 25</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f aca="false">VLOOKUP(B5,M:O,3,0)</f>
+        <v>14:30</v>
+      </c>
+      <c r="G5" s="7" t="str">
+        <f aca="false">VLOOKUP(B5,M:P,4,0)</f>
+        <v>BOOM</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f aca="false">VLOOKUP(B6,M:O,3,0)</f>
+        <v>18:00</v>
+      </c>
+      <c r="G6" s="7" t="str">
+        <f aca="false">VLOOKUP(B6,M:P,4,0)</f>
+        <v>LOVERE VIA PAGLIA 41</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f aca="false">VLOOKUP(B7,M:O,3,0)</f>
+        <v>18:00</v>
+      </c>
+      <c r="G7" s="7" t="str">
+        <f aca="false">VLOOKUP(B7,M:P,4,0)</f>
+        <v>LOVERE VIA PAGLIA 41</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f aca="false">VLOOKUP(B8,M:O,3,0)</f>
+        <v>17:30</v>
+      </c>
+      <c r="G8" s="7" t="str">
+        <f aca="false">VLOOKUP(B8,M:P,4,0)</f>
+        <v>SARNICO VIA OLIMPIA 4</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f aca="false">VLOOKUP(B9,M:O,3,0)</f>
+        <v>14:30</v>
+      </c>
+      <c r="G9" s="7" t="str">
+        <f aca="false">VLOOKUP(B9,M:P,4,0)</f>
+        <v>CASAZZA PIAZZA PIEVE 4</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>45948</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f aca="false">VLOOKUP(B10,M:O,3,0)</f>
+        <v>10:00</v>
+      </c>
+      <c r="G10" s="7" t="str">
+        <f aca="false">VLOOKUP(B10,M:P,4,0)</f>
+        <v>SOVERE VIA CANNETO 4</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>45948</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f aca="false">VLOOKUP(B11,M:O,3,0)</f>
+        <v>14:00</v>
+      </c>
+      <c r="G11" s="7" t="str">
+        <f aca="false">VLOOKUP(B11,M:P,4,0)</f>
+        <v>SERIATE VIA PO 25</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <v>45948</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f aca="false">VLOOKUP(B12,M:O,3,0)</f>
+        <v>17:30</v>
+      </c>
+      <c r="G12" s="7" t="str">
+        <f aca="false">VLOOKUP(B12,M:P,4,0)</f>
+        <v>SARNICO VIA OLIMPIA 4</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
+        <v>45948</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f aca="false">VLOOKUP(B13,M:O,3,0)</f>
+        <v>11:00</v>
+      </c>
+      <c r="G13" s="7" t="str">
+        <f aca="false">VLOOKUP(B13,M:P,4,0)</f>
+        <v>BRUSAPORTO VIA BELVEDERE 1</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f aca="false">VLOOKUP(B14,M:O,3,0)</f>
+        <v>14:00</v>
+      </c>
+      <c r="G14" s="7" t="str">
+        <f aca="false">VLOOKUP(B14,M:P,4,0)</f>
+        <v>SERIATE VIA PO 25</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f aca="false">VLOOKUP(B15,M:O,3,0)</f>
+        <v>18:00</v>
+      </c>
+      <c r="G15" s="7" t="str">
+        <f aca="false">VLOOKUP(B15,M:P,4,0)</f>
+        <v>LOVERE VIA PAGLIA 41</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f aca="false">VLOOKUP(B16,M:O,3,0)</f>
+        <v>14:30</v>
+      </c>
+      <c r="G16" s="7" t="str">
+        <f aca="false">VLOOKUP(B16,M:P,4,0)</f>
+        <v>BOOM</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f aca="false">VLOOKUP(B17,M:O,3,0)</f>
+        <v>15:00</v>
+      </c>
+      <c r="G17" s="7" t="str">
+        <f aca="false">VLOOKUP(B17,M:P,4,0)</f>
+        <v>MONTELLO VIA L.ARIOSTO</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f aca="false">VLOOKUP(B18,M:O,3,0)</f>
+        <v>14:30</v>
+      </c>
+      <c r="G18" s="7" t="str">
+        <f aca="false">VLOOKUP(B18,M:P,4,0)</f>
+        <v>CASAZZA PIAZZA PIEVE 4</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f aca="false">VLOOKUP(B19,M:O,3,0)</f>
+        <v>11:00</v>
+      </c>
+      <c r="G19" s="7" t="str">
+        <f aca="false">VLOOKUP(B19,M:P,4,0)</f>
+        <v>BRUSAPORTO VIA BELVEDERE 1</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f aca="false">VLOOKUP(B20,M:O,3,0)</f>
+        <v>17:30</v>
+      </c>
+      <c r="G20" s="7" t="str">
+        <f aca="false">VLOOKUP(B20,M:P,4,0)</f>
+        <v>SARNICO VIA OLIMPIA 4</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f aca="false">VLOOKUP(B21,M:O,3,0)</f>
+        <v>10:00</v>
+      </c>
+      <c r="G21" s="7" t="str">
+        <f aca="false">VLOOKUP(B21,M:P,4,0)</f>
+        <v>SOVERE VIA CANNETO 4</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="n">
+        <v>45969</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f aca="false">VLOOKUP(B22,M:O,3,0)</f>
+        <v>14:30</v>
+      </c>
+      <c r="G22" s="7" t="str">
+        <f aca="false">VLOOKUP(B22,M:P,4,0)</f>
+        <v>BOOM</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="n">
+        <v>45969</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="7" t="str">
+        <f aca="false">VLOOKUP(B23,M:O,3,0)</f>
+        <v>14:00</v>
+      </c>
+      <c r="G23" s="7" t="str">
+        <f aca="false">VLOOKUP(B23,M:P,4,0)</f>
+        <v>SERIATE VIA PO 25</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="n">
+        <v>45969</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="7" t="str">
+        <f aca="false">VLOOKUP(B24,M:O,3,0)</f>
+        <v>18:00</v>
+      </c>
+      <c r="G24" s="7" t="str">
+        <f aca="false">VLOOKUP(B24,M:P,4,0)</f>
+        <v>LOVERE VIA PAGLIA 41</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="n">
+        <v>45969</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="7" t="str">
+        <f aca="false">VLOOKUP(B25,M:O,3,0)</f>
+        <v>18:00</v>
+      </c>
+      <c r="G25" s="7" t="str">
+        <f aca="false">VLOOKUP(B25,M:P,4,0)</f>
+        <v>LOVERE VIA PAGLIA 41</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="n">
+        <v>45976</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="7" t="str">
+        <f aca="false">VLOOKUP(B26,M:O,3,0)</f>
+        <v>17:30</v>
+      </c>
+      <c r="G26" s="7" t="str">
+        <f aca="false">VLOOKUP(B26,M:P,4,0)</f>
+        <v>SARNICO VIA OLIMPIA 4</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="n">
+        <v>45976</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="7" t="str">
+        <f aca="false">VLOOKUP(B27,M:O,3,0)</f>
+        <v>10:00</v>
+      </c>
+      <c r="G27" s="7" t="str">
+        <f aca="false">VLOOKUP(B27,M:P,4,0)</f>
+        <v>SOVERE VIA CANNETO 4</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="n">
+        <v>45976</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="7" t="str">
+        <f aca="false">VLOOKUP(B28,M:O,3,0)</f>
+        <v>15:00</v>
+      </c>
+      <c r="G28" s="7" t="str">
+        <f aca="false">VLOOKUP(B28,M:P,4,0)</f>
+        <v>MONTELLO VIA L.ARIOSTO</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="n">
+        <v>45976</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" s="7" t="str">
+        <f aca="false">VLOOKUP(B29,M:O,3,0)</f>
+        <v>14:30</v>
+      </c>
+      <c r="G29" s="7" t="str">
+        <f aca="false">VLOOKUP(B29,M:P,4,0)</f>
+        <v>CASAZZA PIAZZA PIEVE 4</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="n">
+        <v>45983</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F30" s="7" t="str">
+        <f aca="false">VLOOKUP(B30,M:O,3,0)</f>
+        <v>18:00</v>
+      </c>
+      <c r="G30" s="7" t="str">
+        <f aca="false">VLOOKUP(B30,M:P,4,0)</f>
+        <v>LOVERE VIA PAGLIA 41</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="n">
+        <v>45983</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="7" t="str">
+        <f aca="false">VLOOKUP(B31,M:O,3,0)</f>
+        <v>14:00</v>
+      </c>
+      <c r="G31" s="7" t="str">
+        <f aca="false">VLOOKUP(B31,M:P,4,0)</f>
+        <v>SERIATE VIA PO 25</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="n">
+        <v>45983</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" s="7" t="str">
+        <f aca="false">VLOOKUP(B32,M:O,3,0)</f>
+        <v>11:00</v>
+      </c>
+      <c r="G32" s="7" t="str">
+        <f aca="false">VLOOKUP(B32,M:P,4,0)</f>
+        <v>BRUSAPORTO VIA BELVEDERE 1</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="n">
+        <v>45983</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="7" t="str">
+        <f aca="false">VLOOKUP(B33,M:O,3,0)</f>
+        <v>14:30</v>
+      </c>
+      <c r="G33" s="7" t="str">
+        <f aca="false">VLOOKUP(B33,M:P,4,0)</f>
+        <v>BOOM</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="n">
+        <v>45990</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" s="7" t="str">
+        <f aca="false">VLOOKUP(B34,M:O,3,0)</f>
+        <v>15:00</v>
+      </c>
+      <c r="G34" s="7" t="str">
+        <f aca="false">VLOOKUP(B34,M:P,4,0)</f>
+        <v>MONTELLO VIA L.ARIOSTO</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="n">
+        <v>45990</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="7" t="str">
+        <f aca="false">VLOOKUP(B35,M:O,3,0)</f>
+        <v>14:30</v>
+      </c>
+      <c r="G35" s="7" t="str">
+        <f aca="false">VLOOKUP(B35,M:P,4,0)</f>
+        <v>CASAZZA PIAZZA PIEVE 4</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="n">
+        <v>45990</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="7" t="str">
+        <f aca="false">VLOOKUP(B36,M:O,3,0)</f>
+        <v>10:00</v>
+      </c>
+      <c r="G36" s="7" t="str">
+        <f aca="false">VLOOKUP(B36,M:P,4,0)</f>
+        <v>SOVERE VIA CANNETO 4</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="n">
+        <v>45990</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="7" t="str">
+        <f aca="false">VLOOKUP(B37,M:O,3,0)</f>
+        <v>18:00</v>
+      </c>
+      <c r="G37" s="7" t="str">
+        <f aca="false">VLOOKUP(B37,M:P,4,0)</f>
+        <v>LOVERE VIA PAGLIA 41</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -29964,10 +31331,10 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="1" sqref="G2:G37 A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="18.36"/>
   </cols>
@@ -32071,10 +33438,10 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A236" activeCellId="0" sqref="A236"/>
+      <selection pane="topLeft" activeCell="A236" activeCellId="1" sqref="G2:G37 A236"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83203125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.84765625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.63"/>
@@ -41042,10 +42409,10 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="G2:G37 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83203125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.84765625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.01"/>
@@ -42565,10 +43932,10 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+      <selection pane="topLeft" activeCell="A47" activeCellId="1" sqref="G2:G37 A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30.55"/>
@@ -42578,7 +43945,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="47.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49934,10 +51301,10 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
+      <selection pane="topLeft" activeCell="A83" activeCellId="1" sqref="G2:G37 A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="31.36"/>
@@ -49946,7 +51313,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="52.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57010,20 +58377,20 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="G2:G37 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="48.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57155,20 +58522,20 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="G2:G37 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="48.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57276,13 +58643,13 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="G2:G37 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83203125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.84765625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="55.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="55.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
